--- a/VIA Factors/Data.xlsx
+++ b/VIA Factors/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Client Task\VIA Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F85050-F599-42BB-B29A-32B8CEFDC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCF6CE-AEC7-4112-A654-3D6CE40FBFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>22/6/22</t>
+  </si>
+  <si>
+    <t>Husband_Name</t>
+  </si>
+  <si>
+    <t>Patient_Name</t>
   </si>
 </sst>
 </file>
@@ -437,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:S1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2404,5 +2413,117 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31D3687-C46F-43F1-8851-B19A888F1D44}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>